--- a/referrals.xlsx
+++ b/referrals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttiwa\OneDrive\Desktop\Hunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7CDD7A-F694-412F-93BE-049E9C97EC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94F556-9E9A-4D1A-88C2-A216182C15DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{FA27A87C-29B2-49EE-AFEB-0ABF27839255}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -51,26 +51,113 @@
     <t>Link</t>
   </si>
   <si>
-    <t xml:space="preserve">tushat </t>
-  </si>
-  <si>
-    <t>grid</t>
-  </si>
-  <si>
-    <t>SDE 2</t>
-  </si>
-  <si>
-    <t>https://tortoise.pro/</t>
-  </si>
-  <si>
-    <t>ttiwari19.tt@gmail.com</t>
+    <t>Parul Gupta</t>
+  </si>
+  <si>
+    <t>parul.gupta@groww.in</t>
+  </si>
+  <si>
+    <t>Groww</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54557</t>
+  </si>
+  <si>
+    <t>Web Developer - SDE II</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54558</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54559</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54560</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54561</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54563</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54564</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54565</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54566</t>
+  </si>
+  <si>
+    <t>https://groww.sensehq.com/careers/jobs/54567</t>
+  </si>
+  <si>
+    <t>Alston Mascarenhas</t>
+  </si>
+  <si>
+    <t>alston.mascarenhas@groww.in</t>
+  </si>
+  <si>
+    <t>Namita Nambiar</t>
+  </si>
+  <si>
+    <t>namita@groww.in</t>
+  </si>
+  <si>
+    <t>Trupti Uppin</t>
+  </si>
+  <si>
+    <t>trupti.uppin@groww.in</t>
+  </si>
+  <si>
+    <t>ggupta@groww.in</t>
+  </si>
+  <si>
+    <t>Gargi Gupta</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>vishal.k@groww.com</t>
+  </si>
+  <si>
+    <t>Sameer Sharma</t>
+  </si>
+  <si>
+    <t>sameers@groww.in</t>
+  </si>
+  <si>
+    <t>Sanjana Kunder</t>
+  </si>
+  <si>
+    <t>sanjana.v@groww.in</t>
+  </si>
+  <si>
+    <t>Nisha Tandon</t>
+  </si>
+  <si>
+    <t>nisha.tandon@groww.in</t>
+  </si>
+  <si>
+    <t>vivekanand.singh@groww.in</t>
+  </si>
+  <si>
+    <t>vivekanand Singh</t>
+  </si>
+  <si>
+    <t>Tushar</t>
+  </si>
+  <si>
+    <t>tushar.frontend+applications@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +169,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,15 +519,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A57C550-0BCC-4247-A542-EF0F410AB36D}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="25.265625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="39.73046875" customWidth="1"/>
+    <col min="4" max="4" width="27.796875" customWidth="1"/>
     <col min="5" max="5" width="29.265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -460,22 +556,217 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{B6592628-AFC1-4241-B34C-D2C80F42AA6C}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{B6592628-AFC1-4241-B34C-D2C80F42AA6C}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{79F30858-42D5-47F7-A98E-00099E341103}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{17B1490A-6359-44A9-9B8C-544B60D9A077}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{6B75D562-27C9-446D-AC61-AFEC034DEB1C}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{5B176FC9-BA52-4A75-80C8-72C4427EC6A7}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{5FFD1F81-83CE-4B1D-BFC0-3CFD6520BD79}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{0547B2DD-BBBF-4C06-A6D3-E50E24195755}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/referrals.xlsx
+++ b/referrals.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -422,16 +422,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Tushar</v>
+        <v>Jigyasa Sharma</v>
       </c>
       <c r="B2" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C2" t="str">
-        <v>tushar.frontend+applications@gmail.com</v>
+        <v>jsharma@linkedin.com</v>
       </c>
       <c r="D2" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -439,16 +439,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Jigyasa Sharma</v>
+        <v>Ankita Pal</v>
       </c>
       <c r="B3" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C3" t="str">
-        <v>jsharma@linkedin.com</v>
+        <v>anpal@linkedin.com</v>
       </c>
       <c r="D3" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E3" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -456,16 +456,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Ankita Pal</v>
+        <v>Ankur Mohan</v>
       </c>
       <c r="B4" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C4" t="str">
-        <v>anpal@linkedin.com</v>
+        <v>amohan@linkedin.com</v>
       </c>
       <c r="D4" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E4" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -473,16 +473,16 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Ankur Mohan</v>
+        <v>Kavya Shetty</v>
       </c>
       <c r="B5" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C5" t="str">
-        <v>amohan@linkedin.com</v>
+        <v>kshetty@linkedin.com</v>
       </c>
       <c r="D5" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E5" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -490,16 +490,16 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Kavya Shetty</v>
+        <v>Smitha S</v>
       </c>
       <c r="B6" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C6" t="str">
-        <v>kshetty@linkedin.com</v>
+        <v>sms1@linkedin.com</v>
       </c>
       <c r="D6" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E6" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -507,16 +507,16 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Smitha S</v>
+        <v>Prabhakaran Athikesavalu</v>
       </c>
       <c r="B7" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C7" t="str">
-        <v>sms1@linkedin.com</v>
+        <v>pra@linkedin.com</v>
       </c>
       <c r="D7" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E7" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -524,16 +524,16 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Prabhakaran Athikesavalu</v>
+        <v>Mohammed Nadeem</v>
       </c>
       <c r="B8" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C8" t="str">
-        <v>pra@linkedin.com</v>
+        <v>mnadeem@linkedin.com</v>
       </c>
       <c r="D8" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E8" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -541,16 +541,16 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mohammed Nadeem</v>
+        <v>Jaideep Mani</v>
       </c>
       <c r="B9" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C9" t="str">
-        <v>mnadeem@linkedin.com</v>
+        <v>jam1@linkedin.com</v>
       </c>
       <c r="D9" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E9" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -558,16 +558,16 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Jaideep Mani</v>
+        <v>Sumiit Kapoor</v>
       </c>
       <c r="B10" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C10" t="str">
-        <v>jam1@linkedin.com</v>
+        <v>sukapoor@linkedin.com</v>
       </c>
       <c r="D10" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E10" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -575,16 +575,16 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Sumiit Kapoor</v>
+        <v>Hardika Shah</v>
       </c>
       <c r="B11" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C11" t="str">
-        <v>sukapoor@linkedin.com</v>
+        <v>hardika@kinaracapital.com</v>
       </c>
       <c r="D11" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E11" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -592,16 +592,16 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Hardika Shah</v>
+        <v>Shweta Kalyanker</v>
       </c>
       <c r="B12" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C12" t="str">
-        <v>hardika@kinaracapital.com</v>
+        <v>skalyanker@linkedin.com</v>
       </c>
       <c r="D12" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E12" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -609,16 +609,16 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Shweta Kalyanker</v>
+        <v>Heena Gurbani</v>
       </c>
       <c r="B13" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C13" t="str">
-        <v>skalyanker@linkedin.com</v>
+        <v>hgurbani@linkedin.com</v>
       </c>
       <c r="D13" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E13" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -626,16 +626,16 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Heena Gurbani</v>
+        <v>Maithili Patil</v>
       </c>
       <c r="B14" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C14" t="str">
-        <v>hgurbani@linkedin.com</v>
+        <v>mpatil@linkedin.com</v>
       </c>
       <c r="D14" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E14" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -643,16 +643,16 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Maithili Patil</v>
+        <v>Ankita Pal</v>
       </c>
       <c r="B15" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C15" t="str">
-        <v>mpatil@linkedin.com</v>
+        <v>anpal@linkedin.com</v>
       </c>
       <c r="D15" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E15" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -660,16 +660,16 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Ankita Pal</v>
+        <v>Clara Kurian</v>
       </c>
       <c r="B16" t="str">
-        <v>Flipkart</v>
+        <v>Linkedin</v>
       </c>
       <c r="C16" t="str">
-        <v>anpal@linkedin.com</v>
+        <v>ckurian@linkedin.com</v>
       </c>
       <c r="D16" t="str">
-        <v>UI Engineer II - #91817</v>
+        <v/>
       </c>
       <c r="E16" t="str">
         <v>https://www.flipkartcareers.com/#!/job-view/ui-engineer-ii-bangalore-karnataka-2024112014163265</v>
@@ -677,199 +677,343 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Clara Kurian</v>
+        <v>Victoria Picardo</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C17" t="str">
-        <v>ckurian@linkedin.com</v>
+        <v>vpicardo@linkedin.com</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Victoria Picardo</v>
+        <v>Mahima Mehta</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C18" t="str">
-        <v>vpicardo@linkedin.com</v>
+        <v>mamehta@linkedin.com</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mahima Mehta</v>
+        <v>Nisha Tv</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C19" t="str">
-        <v>mamehta@linkedin.com</v>
+        <v>ntv@linkedin.com</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Nisha Tv</v>
+        <v>Rahil Mohammed</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C20" t="str">
-        <v>ntv@linkedin.com</v>
+        <v>rahmohammedrafeeq@linkedin.com</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Rahil Mohammed</v>
+        <v>Laxmi Naorem</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C21" t="str">
-        <v>rahmohammedrafeeq@linkedin.com</v>
+        <v>lnaorem@linkedin.com</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Laxmi Naorem</v>
+        <v>Kruthika Sonwalkar</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C22" t="str">
-        <v>lnaorem@linkedin.com</v>
+        <v>ksonwalkar@linkedin.com</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Kruthika Sonwalkar</v>
+        <v>Vaishali Gurung</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C23" t="str">
-        <v>ksonwalkar@linkedin.com</v>
+        <v>vgurung@linkedin.com</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Vaishali Gurung</v>
+        <v>Gunjan Sharma</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C24" t="str">
-        <v>vgurung@linkedin.com</v>
+        <v>gunsharma@linkedin.com</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Gunjan Sharma</v>
+        <v>Santosh D?Souza</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C25" t="str">
-        <v>gunsharma@linkedin.com</v>
+        <v>sdsouza@linkedin.com</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Santosh D?Souza</v>
+        <v>Meghna Swami</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C26" t="str">
-        <v>sdsouza@linkedin.com</v>
+        <v>mswami@linkedin.com</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Meghna Swami</v>
+        <v>Rebecca Oommen</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C27" t="str">
-        <v>mswami@linkedin.com</v>
+        <v>roommen@linkedin.com</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Rebecca Oommen</v>
+        <v>Lorraine White</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C28" t="str">
-        <v>roommen@linkedin.com</v>
+        <v>lowhite@linkedin.com</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Lorraine White</v>
+        <v>Blanca Pinto</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C29" t="str">
-        <v>lowhite@linkedin.com</v>
+        <v>bpinto@linkedin.com</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Blanca Pinto</v>
+        <v>Bagmi Tejaswita</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C30" t="str">
-        <v>bpinto@linkedin.com</v>
+        <v>btejaswita@linkedin.com</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Bagmi Tejaswita</v>
+        <v>Anuja Chakrabarti</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C31" t="str">
-        <v>btejaswita@linkedin.com</v>
+        <v>anchakrabarti@linkedin.com</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Anuja Chakrabarti</v>
+        <v>Nirmal Ragesh</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C32" t="str">
-        <v>anchakrabarti@linkedin.com</v>
+        <v>nragesh@linkedin.com</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Nirmal Ragesh</v>
+        <v>Karthik Badrinath</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C33" t="str">
-        <v>nragesh@linkedin.com</v>
+        <v>kgopalkrishnabadrinath@linkedin.com</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Karthik Badrinath</v>
+        <v>Kapila Sebastian</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C34" t="str">
-        <v>kgopalkrishnabadrinath@linkedin.com</v>
+        <v>ksebastian@linkedin.com</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Kapila Sebastian</v>
+        <v>Abhilash Chipkar</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C35" t="str">
-        <v>ksebastian@linkedin.com</v>
+        <v>achipkar@linkedin.com</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Abhilash Chipkar</v>
+        <v>Prasanna Rao</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C36" t="str">
-        <v>achipkar@linkedin.com</v>
+        <v>pgururajanrao@linkedin.com</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Prasanna Rao</v>
+        <v>Madhusha Dash</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C37" t="str">
-        <v>pgururajanrao@linkedin.com</v>
+        <v>mdash@linkedin.com</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Madhusha Dash</v>
+        <v>Shama Fathima</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C38" t="str">
-        <v>mdash@linkedin.com</v>
+        <v>shfathima@linkedin.com</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Shama Fathima</v>
+        <v>Semantee Mukherjee</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Linkedin</v>
       </c>
       <c r="C39" t="str">
-        <v>shfathima@linkedin.com</v>
+        <v>semukherjee@linkedin.com</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
         <v>Semantee Mukherjee</v>
       </c>
+      <c r="B40" t="str">
+        <v>Linkedin</v>
+      </c>
       <c r="C40" t="str">
         <v>semukherjee@linkedin.com</v>
       </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
   </ignoredErrors>
 </worksheet>
 </file>
